--- a/check sample work/christains samples 2021/TA/2021-04-28-run/20210428 pH electrode check sheet.xlsx
+++ b/check sample work/christains samples 2021/TA/2021-04-28-run/20210428 pH electrode check sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lab\Desktop\carbon chemistry benchtop comp\pH electrode checks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rye-Tech\Documents\R\rye-tech-home\2021-season-summary\check sample work\christains samples 2021\TA\2021-04-28-run\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875617A7-447D-47F6-92CF-1BA4376D87AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48060470-7A8D-4750-80A3-73FD8208E5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="1740" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pH to mV from calibration" sheetId="4" r:id="rId1"/>
@@ -20,14 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -614,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1226,7 +1218,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1491,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>49.898000000000003</v>
